--- a/99_Works/栄！/栄！金融フレーバーテキスト.xlsx
+++ b/99_Works/栄！/栄！金融フレーバーテキスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trunk\99_Works\栄！\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>東京海上保険会社</t>
   </si>
@@ -174,6 +174,42 @@
     <rPh sb="4" eb="6">
       <t>ハッコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解散した東京鉄道組合の資金を運用して設立。
+栄一は 創立総理代人、発起人、相談役として活躍</t>
+    <rPh sb="22" eb="24">
+      <t>エイイチ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カツヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1906年設立、栄一は相談役として活躍</t>
+    <rPh sb="8" eb="10">
+      <t>エイイチ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ソウダンヤク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カツヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">是月ヨリ栄一横浜正金銀行株主トナル。同行株主タルコト数年ニ及ブ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大蔵省ヨリ北海道拓殖銀行設立委員ヲ命ゼラル。同三十三年二月免ゼラル。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1945年大阪貯蓄銀行、摂津貯蓄銀行(1921-1945)、第一相互貯蓄銀行、東京貯蓄銀行(1892-1945)、内国貯金銀行、日本相互貯蓄銀行、日本貯蓄銀行(1922-1945)、不動貯金銀行、安田貯蓄銀行が新立合併。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -921,7 +957,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1014,10 +1050,12 @@
       <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1030,10 +1068,12 @@
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,10 +1086,12 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1104,12 @@
       <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1144,10 +1188,12 @@
       <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">

--- a/99_Works/栄！/栄！金融フレーバーテキスト.xlsx
+++ b/99_Works/栄！/栄！金融フレーバーテキスト.xlsx
@@ -41,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
-  <si>
-    <t>東京海上保険会社</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>北海道拓殖銀行</t>
   </si>
@@ -52,40 +49,19 @@
     <t>十五銀行</t>
   </si>
   <si>
-    <t>損害保険ジャパン</t>
-  </si>
-  <si>
-    <t>三井両替店(だな) →三井銀行</t>
-  </si>
-  <si>
     <t>さくら銀行</t>
   </si>
   <si>
-    <t>三井住友銀行</t>
-  </si>
-  <si>
-    <t>帝国商業銀行</t>
-  </si>
-  <si>
     <t>帝国銀行</t>
   </si>
   <si>
     <t>日本銀行</t>
   </si>
   <si>
-    <t>日本火災海上保険→明治火災海上保険</t>
-  </si>
-  <si>
-    <t>三菱UFJ銀行</t>
-  </si>
-  <si>
     <t>万歳生命保険</t>
   </si>
   <si>
     <t>日本貯蓄銀行</t>
-  </si>
-  <si>
-    <t>横浜正金銀行</t>
   </si>
   <si>
     <t>東京銀行</t>
@@ -126,90 +102,248 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1873年（明治6）設立、日本最初の近代的銀行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1876年（明治9）設立、日本最初の私立銀行</t>
-    <rPh sb="18" eb="20">
+    <t>第一国立銀行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帝国商業銀行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三井住友銀行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三菱UFJ銀行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>損害保険ジャパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横浜正金銀行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本火災海上保険→明治火災海上保険</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住友銀行と、さくら銀行が合併して発足。
+3大メガバンクの一角を占める。</t>
+    <rPh sb="21" eb="22">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イッカク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京三菱銀行とUFJ銀行が合併して発足。
+3大メガバンクの一角を占める。</t>
+    <rPh sb="17" eb="19">
+      <t>ホッソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一の日本国債に関する証券集中保管機関。
+栄一は割引委員を務める。</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1873年設立、日本最初の近代的銀行。
+栄一は総監役、頭取を務める。</t>
+    <rPh sb="20" eb="22">
+      <t>エイイチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1880年に外国為替、貿易金融専門銀行として設立。
+栄一は株主となる。</t>
+    <rPh sb="26" eb="28">
+      <t>エイイチ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カブヌシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1876年設立、日本最初の私立銀行。
+栄一は創立賛意する。</t>
+    <rPh sb="13" eb="15">
       <t>シリツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第一国立銀行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【第一銀行】 &amp; 【三井銀行】→ジョグレス進化！→【帝国銀行】
-帝愛グループじゃないよ。間違えないでね。</t>
-    <rPh sb="10" eb="12">
-      <t>ミツイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ギンコウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シンカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>テイコク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ギンコウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ミカド</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>アイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>マチガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ペリカは発行していないです。。</t>
-    <rPh sb="4" eb="6">
-      <t>ハッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>解散した東京鉄道組合の資金を運用して設立。
-栄一は 創立総理代人、発起人、相談役として活躍</t>
-    <rPh sb="22" eb="24">
+    <rPh sb="19" eb="21">
       <t>エイイチ</t>
     </rPh>
-    <rPh sb="43" eb="45">
-      <t>カツヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1906年設立、栄一は相談役として活躍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(私盟会社)三井銀行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1894年設立。栄一は役員斡旋、相談役、紛争調停を務める。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツリツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京海上保険会社</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1879年開業。栄一は 創立総理代人、発起人、相談役を務める。</t>
     <rPh sb="8" eb="10">
       <t>エイイチ</t>
     </rPh>
-    <rPh sb="11" eb="14">
+    <rPh sb="27" eb="28">
+      <t>ツト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1906年設立、営業開始。
+栄一は相談役を務める。</t>
+    <rPh sb="14" eb="16">
+      <t>エイイチ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
       <t>ソウダンヤク</t>
     </rPh>
-    <rPh sb="17" eb="19">
-      <t>カツヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">是月ヨリ栄一横浜正金銀行株主トナル。同行株主タルコト数年ニ及ブ </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大蔵省ヨリ北海道拓殖銀行設立委員ヲ命ゼラル。同三十三年二月免ゼラル。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1945年大阪貯蓄銀行、摂津貯蓄銀行(1921-1945)、第一相互貯蓄銀行、東京貯蓄銀行(1892-1945)、内国貯金銀行、日本相互貯蓄銀行、日本貯蓄銀行(1922-1945)、不動貯金銀行、安田貯蓄銀行が新立合併。</t>
+    <rPh sb="21" eb="22">
+      <t>ツト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1900年北海道拓殖銀行法による特殊銀行として設立。
+栄一は設立委員を務める。</t>
+    <rPh sb="27" eb="29">
+      <t>エイイチ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1897年第十五国立銀行が、営業満期国立銀行処分法により
+私立銀行として改称。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1992年設立、第1回優先株式を日本の金融機関として初めて発行した。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1943年、第一銀行と三井銀行が合併。日本最大の都市銀行となった。</t>
+    <rPh sb="11" eb="13">
+      <t>ミツイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガッペイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1891年設立。栄一は前身となる明治火災保険の発起人、株主。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツリツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイイチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1945年設立。栄一は前身の一つである、東京貯蓄銀行の取締役会長を務めた。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツリツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイイチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンシン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1946年設立。栄一は前身となる、 横浜正金銀行の株主であった。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツリツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイイチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンシン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カブヌシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2002年、安田火災海上保険と日産火災海上保険の合併により発足。</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホッソク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -295,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,8 +460,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -957,7 +1097,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F3" sqref="F3:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -965,61 +1105,61 @@
     <col min="1" max="1" width="9.06640625" style="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="34.46484375" customWidth="1"/>
-    <col min="4" max="4" width="56.46484375" customWidth="1"/>
+    <col min="4" max="4" width="74.73046875" style="12" customWidth="1"/>
     <col min="5" max="5" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E3" s="5">
         <f>LEN(D3)</f>
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:E19" si="0">LEN(D4)</f>
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1027,105 +1167,107 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1133,33 +1275,35 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1167,15 +1311,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1183,17 +1329,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1201,15 +1347,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1217,63 +1365,71 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
